--- a/outputs_HGR/o__Bacteroidales.xlsx
+++ b/outputs_HGR/o__Bacteroidales.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>f__Prevotellaceae</t>
+          <t>f__Prevotellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>f__Prevotellaceae</t>
+          <t>f__Prevotellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>f__Prevotellaceae</t>
+          <t>f__Prevotellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>f__Rikenellaceae</t>
+          <t>f__Rikenellaceae(reject)</t>
         </is>
       </c>
     </row>
